--- a/Datos/Database by set/Set with text box/Xlsx sets/Ikoria Lair of Behemoths Tokens (TIKO).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Ikoria Lair of Behemoths Tokens (TIKO).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,336 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ability Punchcard</t>
+          <t>('Ability Punchcard', ['Card'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Beast', ['Token Creature — Beast', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ability Punchcard</t>
+          <t>('Cat', ['Token Creature — Cat', 'Lifelink (Damage dealt by this creature also causes you to gain that much life.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Cat Bird', ['Token Creature — Cat Bird', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Beast</t>
+          <t>('Companion', ['Card', 'As each game begins, you can place one card with companion here if your starting deck meets its condition. You may cast it once from here.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Beast</t>
+          <t>('Dinosaur', ['Token Creature — Dinosaur', 'Haste', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>('Dinosaur Beast', ['Token Creature — Dinosaur Beast', 'Trample', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>('Feather', ['Token Artifact', '{1}, Sacrifice Feather: Return target Phoenix card from your graveyard to the battlefield tapped.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Token Creature — Cat</t>
+          <t>('Human Soldier', ['Token Creature — Human Soldier', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lifelink (Damage dealt by this creature also causes you to gain that much life.)</t>
+          <t>('Kraken', ['Token Creature — Kraken', '8/8'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Narset of the Ancient Way Emblem', ['Emblem', 'Whenever you cast a noncreature spell, this emblem deals 2 damage to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cat Bird</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Token Creature — Cat Bird</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Companion</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>As each game begins, you can place one card with companion here if your starting deck meets its condition. You may cast it once from here.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Dinosaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Token Creature — Dinosaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Dinosaur Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Token Creature — Dinosaur Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Feather</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Token Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{1}, Sacrifice Feather: Return target Phoenix card from your graveyard to the battlefield tapped.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Human Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Token Creature — Human Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Human Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Token Creature — Human Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Human Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Token Creature — Human Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Token Creature — Kraken</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>8/8</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Narset of the Ancient Way Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Whenever you cast a noncreature spell, this emblem deals 2 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Shark</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Token Creature — Shark</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>*/*</t>
+          <t>('Shark', ['Token Creature — Shark', 'Flying', '*/*'])</t>
         </is>
       </c>
     </row>
